--- a/bank statement generator/bank_statements/statement_71.xlsx
+++ b/bank statement generator/bank_statements/statement_71.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 27.02.2024</t>
+          <t>KONTOSTAND AM 22.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,130 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>02.03.</t>
+          <t>23.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>03.03.</t>
+          <t>24.03.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>EBAY MKTPLC EU PLRUCY</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>24,82-</t>
+          <t>216,67-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>03.03.</t>
+          <t>27.03.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>04.03.</t>
+          <t>28.03.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL YEMUNU</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 46825501</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>38,65-</t>
+          <t>84,74-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>04.03.</t>
+          <t>28.03.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>05.03.</t>
+          <t>29.03.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-53975052</t>
+          <t>PAYPAL OSQMDW</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>56,09-</t>
+          <t>31,53-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>05.03.</t>
+          <t>01.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>06.03.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 17214171</t>
+          <t>BEITRAG Allianz SE K-40080526</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>37,92-</t>
+          <t>52,82-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>06.03.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>07.03.</t>
+          <t>03.04.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>41,21-</t>
+          <t>24,77-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>10.03.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>11.03.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 99490608</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>86,55-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 14.03.2024</t>
+          <t>KONTOSTAND AM 05.04.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>285,24-</t>
+          <t>410,53-</t>
         </is>
       </c>
     </row>
@@ -906,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 22.03.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 11.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
